--- a/va_facility_data_2025-02-20/Muncie VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Muncie%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Muncie VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Muncie%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="Ra52bfd0f627445faabb201f8e32496a2"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rf1e9adf5227d431faf63ae8f34dd0035"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R3f29e7160f884a9186cb27aa39dc8b93"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="Ra4c1e0e9b3014b8aab75bc10ae7349b8"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R84ce2e46726a46ce9ed608ce7114b2b7"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R4f50fdcf046544f2ba241296ee3ae058"/>
   </x:sheets>
 </x:workbook>
 </file>
